--- a/data_year/zb/文化/录像制品出版情况.xlsx
+++ b/data_year/zb/文化/录像制品出版情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,96 +523,138 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18528.93</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10913</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11861.44</v>
+      </c>
       <c r="E2" t="n">
-        <v>71.13509999999999</v>
+        <v>255.52</v>
       </c>
       <c r="F2" t="n">
-        <v>1271</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>7880.3183</v>
+        <v>6519.63</v>
       </c>
       <c r="H2" t="n">
-        <v>7101</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>4034</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14877.99</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8136</v>
+      </c>
+      <c r="K2" t="n">
+        <v>254.94</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3760.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2265</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10863</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5830</v>
+      </c>
       <c r="Q2" t="n">
-        <v>130.988146</v>
+        <v>11753.78</v>
       </c>
       <c r="R2" t="n">
-        <v>294</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>21788.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9477</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12807.09</v>
+      </c>
       <c r="E3" t="n">
-        <v>64.8784</v>
+        <v>62.98</v>
       </c>
       <c r="F3" t="n">
-        <v>1017</v>
+        <v>141</v>
       </c>
       <c r="G3" t="n">
-        <v>14078.7461</v>
+        <v>6864.36</v>
       </c>
       <c r="H3" t="n">
-        <v>10100</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>2994</v>
+      </c>
+      <c r="I3" t="n">
+        <v>18221.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6993</v>
+      </c>
+      <c r="K3" t="n">
+        <v>59.77</v>
+      </c>
+      <c r="L3" t="n">
+        <v>137</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4417.73</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1591</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13743.7</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5265</v>
+      </c>
       <c r="Q3" t="n">
-        <v>253.176246</v>
+        <v>14860.86</v>
       </c>
       <c r="R3" t="n">
-        <v>328</v>
+        <v>6342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>43</v>
-      </c>
-      <c r="F4" t="n">
-        <v>663</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19992</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11766</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10453.84</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5850</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7937.47</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -621,34 +663,26 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>1808.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1147</v>
-      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6034.7541</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5512</v>
+      </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>16.354</v>
-      </c>
-      <c r="F5" t="n">
-        <v>296</v>
-      </c>
-      <c r="G5" t="n">
-        <v>30483.7168</v>
-      </c>
-      <c r="H5" t="n">
-        <v>12651</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -657,34 +691,26 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>4851.9153</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1944</v>
-      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6226.2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5671</v>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="F6" t="n">
-        <v>214</v>
-      </c>
-      <c r="G6" t="n">
-        <v>29673.18</v>
-      </c>
-      <c r="H6" t="n">
-        <v>15398</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -693,34 +719,26 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>6531.85</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3305</v>
-      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6915.15020000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5293</v>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>236</v>
-      </c>
-      <c r="G7" t="n">
-        <v>26880.31</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14067</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -729,34 +747,26 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>11511.68</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4226</v>
-      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6367.4838</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4672</v>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="F8" t="n">
-        <v>47</v>
-      </c>
-      <c r="G8" t="n">
-        <v>20387.67</v>
-      </c>
-      <c r="H8" t="n">
-        <v>12747</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -765,34 +775,26 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>9951.299999999999</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4601</v>
-      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6239.4348</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4141</v>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="F9" t="n">
-        <v>24</v>
-      </c>
-      <c r="G9" t="n">
-        <v>16722.37</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10561</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -801,442 +803,64 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>11585.33</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5959</v>
-      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17868.75</v>
+        <v>5320.33800000002</v>
       </c>
       <c r="C10" t="n">
-        <v>11772</v>
-      </c>
-      <c r="D10" t="n">
-        <v>16074.09</v>
-      </c>
-      <c r="E10" t="n">
-        <v>59.66</v>
-      </c>
-      <c r="F10" t="n">
-        <v>40</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9764.290000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6365</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12457.44</v>
-      </c>
-      <c r="J10" t="n">
-        <v>8480</v>
-      </c>
-      <c r="K10" t="n">
-        <v>59.66</v>
-      </c>
-      <c r="L10" t="n">
-        <v>37</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6587</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3921</v>
-      </c>
-      <c r="O10" t="n">
-        <v>5810.78</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4522</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>8044.8</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5367</v>
-      </c>
+        <v>3299</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15470.98</v>
+        <v>4752.83100000002</v>
       </c>
       <c r="C11" t="n">
-        <v>13069</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12216.64</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8054.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6184</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12086.89</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9886</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5329.25</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3640</v>
-      </c>
-      <c r="O11" t="n">
-        <v>6754.47</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6240</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>7413.61</v>
-      </c>
-      <c r="R11" t="n">
-        <v>6879</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18528.93</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10913</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11861.44</v>
-      </c>
-      <c r="E12" t="n">
-        <v>255.52</v>
-      </c>
-      <c r="F12" t="n">
-        <v>43</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6519.63</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4034</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14877.99</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8136</v>
-      </c>
-      <c r="K12" t="n">
-        <v>254.94</v>
-      </c>
-      <c r="L12" t="n">
-        <v>41</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3760.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2265</v>
-      </c>
-      <c r="O12" t="n">
-        <v>10863</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5830</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>11753.78</v>
-      </c>
-      <c r="R12" t="n">
-        <v>6836</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21788.2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9477</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12807.09</v>
-      </c>
-      <c r="E13" t="n">
-        <v>62.98</v>
-      </c>
-      <c r="F13" t="n">
-        <v>141</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6864.36</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2994</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18221.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6993</v>
-      </c>
-      <c r="K13" t="n">
-        <v>59.77</v>
-      </c>
-      <c r="L13" t="n">
-        <v>137</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4417.73</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1591</v>
-      </c>
-      <c r="O13" t="n">
-        <v>13743.7</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5265</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>14860.86</v>
-      </c>
-      <c r="R13" t="n">
-        <v>6342</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10453.84</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5850</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7937.47</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6034.7541</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5512</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6226.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5671</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6915.15020000001</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5293</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6367.4838</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4672</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6239.4348</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4141</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5320.33800000002</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3299</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+        <v>3373</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
